--- a/biology/Botanique/Träpriset_Award/Träpriset_Award.xlsx
+++ b/biology/Botanique/Träpriset_Award/Träpriset_Award.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Tr%C3%A4priset_Award</t>
+          <t>Träpriset_Award</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Träpriset Award (prix du bois en suédois) est un important prix d'architecture contemporain suédois remis au concours d'architecture de maison en bois organisé tous les quatre ans depuis 1967 par la Fédération des Industries Forestières Suédoise en Suède en Scandinavie.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Tr%C3%A4priset_Award</t>
+          <t>Träpriset_Award</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Un jury d'une cinquantaine d'architectes / membres de la fédération des industries forestières suédoise de Stockholm, récompense le gagnant parmi onze finalistes, du concours des meilleures constructions contemporaines suédoises en bois, parmi environ 250 candidats. Les participants ont en commun le respect de la forêt et de la nature vis-à-vis de l'emplacement dans le paysage et de la construction de leur réalisation architecturale. 
 Les constructions sont divisées en trois catégories : 
@@ -533,7 +547,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Tr%C3%A4priset_Award</t>
+          <t>Träpriset_Award</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,7 +565,9 @@
           <t>Lauréats</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>2012 : Skogssaunan Tomtebo de Norrlandet, par le cabinet d’architecte Fabric Architecture Ltd  1
 2008 : East Mill forêt de Sollentuna, par le cabinet d'architecte Brunnberg &amp; Forshed
